--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-changed.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-changed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="616">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -276,7 +276,9 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it should not have a sequence number. 
+              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
+         and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
     <t>Request</t>
@@ -431,7 +433,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -983,7 +985,7 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Medication)
+    <t xml:space="preserve">Reference(http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-medication)
 </t>
   </si>
   <si>
@@ -1580,14 +1582,14 @@
     <t>MedicationRequest.dosageInstruction</t>
   </si>
   <si>
-    <t xml:space="preserve">Dosage
+    <t xml:space="preserve">Dosage {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-dosage}
 </t>
   </si>
   <si>
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is to be used by the patient.</t>
+    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1597,10 +1599,7 @@
 </t>
   </si>
   <si>
-    <t>Request.occurrence[x]</t>
-  </si>
-  <si>
-    <t>see dosageInstruction mapping</t>
+    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:baseEntry</t>
@@ -1613,17 +1612,11 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage (MedicationRequest)</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Base entry of the dosage instruction</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, timing or as needed has to be specified {patientInstruction.exists() or timing.exists() or asNeeded.exists()}</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>
@@ -1636,7 +1629,7 @@
 </t>
   </si>
   <si>
-    <t>CH EMED Dosage Split (MedicationStatement / MedicationDispense / MedicationRequest)</t>
+    <t>Additional entry of the dosage instruction</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest</t>
@@ -1695,23 +1688,13 @@
 </t>
   </si>
   <si>
-    <t>A fixed quantity (no comparator)</t>
-  </si>
-  <si>
-    <t>The comparator is not used on a SimpleQuantity</t>
-  </si>
-  <si>
-    <t>The context of use may frequently define what kind of quantity this is and therefore what kind of units can be used. The context of use may also restrict the values for the comparator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
-  </si>
-  <si>
-    <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
-  </si>
-  <si>
-    <t>SN (see also Range) or CQ</t>
+    <t>First fill quantity</t>
+  </si>
+  <si>
+    <t>The amount or quantity to provide as part of the first dispense.</t>
+  </si>
+  <si>
+    <t>Supply.quantity[moodCode=RQO]</t>
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.initialFill.duration</t>
@@ -1733,12 +1716,6 @@
     <t>MedicationRequest.dispenseRequest.dispenseInterval</t>
   </si>
   <si>
-    <t>Minimum period of time between dispenses</t>
-  </si>
-  <si>
-    <t>The minimum period of time that must occur between dispenses of the medication.</t>
-  </si>
-  <si>
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
@@ -1788,6 +1765,21 @@
     <t>MedicationRequest.dispenseRequest.quantity</t>
   </si>
   <si>
+    <t>Number of packages</t>
+  </si>
+  <si>
+    <t>The amount that is to be dispensed for one fill.</t>
+  </si>
+  <si>
+    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
+  </si>
+  <si>
     <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
   </si>
   <si>
@@ -1809,7 +1801,7 @@
     <t>MedicationRequest.substitution</t>
   </si>
   <si>
-    <t>Any restrictions on medication substitution</t>
+    <t>If absent, substitution is assumed allowed. If present, the value is fixed to none (not allowed).</t>
   </si>
   <si>
     <t>Indicates whether or not substitution can or should be part of the dispense. In some cases, substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
@@ -1858,6 +1850,43 @@
   </si>
   <si>
     <t>allowedCodeableConcept</t>
+  </si>
+  <si>
+    <t>http://fhir.ch/ig/ch-emed-epr/ValueSet/ch-emed-epr-substance-admin-substitution-code</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].id</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].extension</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].coding</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-substanceAdminSubstitution"/&gt;
+  &lt;code value="N"/&gt;
+  &lt;display value="none"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x]:allowedCodeableConcept.text</t>
+  </si>
+  <si>
+    <t>MedicationRequest.substitution.allowed[x].text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
   </si>
   <si>
     <t>MedicationRequest.substitution.reason</t>
@@ -2231,7 +2260,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO105"/>
+  <dimension ref="A1:AO109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2240,17 +2269,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="61.80078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="58.33203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.44921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="73.6171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="105.1953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2259,27 +2288,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="155.9453125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.62109375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="57.07421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="131.0546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9062,7 +9091,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -11234,13 +11263,13 @@
         <v>103</v>
       </c>
       <c r="AK77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM77" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>503</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11251,13 +11280,13 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>496</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>82</v>
@@ -11279,13 +11308,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="L78" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="M78" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>500</v>
@@ -11350,7 +11379,7 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11359,7 +11388,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11370,13 +11399,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>496</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>82</v>
@@ -11398,13 +11427,13 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>500</v>
@@ -11478,7 +11507,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11489,10 +11518,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11515,13 +11544,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11572,7 +11601,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11590,10 +11619,10 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11604,10 +11633,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11719,10 +11748,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11836,10 +11865,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11921,7 +11950,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11953,10 +11982,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11979,7 +12008,7 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L84" t="s" s="2">
         <v>112</v>
@@ -11988,7 +12017,7 @@
         <v>113</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12038,7 +12067,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12059,7 +12088,7 @@
         <v>82</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12070,10 +12099,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12185,10 +12214,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12302,10 +12331,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12387,7 +12416,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
@@ -12419,10 +12448,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12445,17 +12474,15 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>531</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12504,7 +12531,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12513,10 +12540,10 @@
         <v>91</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>536</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>82</v>
@@ -12525,21 +12552,21 @@
         <v>82</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO88" t="s" s="2">
-        <v>538</v>
+        <v>82</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12562,13 +12589,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12619,7 +12646,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12640,7 +12667,7 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12651,10 +12678,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12677,13 +12704,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>545</v>
+        <v>112</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>546</v>
+        <v>113</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12734,7 +12761,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
@@ -12755,7 +12782,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12766,10 +12793,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12795,16 +12822,16 @@
         <v>246</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="O91" t="s" s="2">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>82</v>
@@ -12853,7 +12880,7 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
@@ -12871,10 +12898,10 @@
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -12885,10 +12912,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12911,16 +12938,16 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12970,7 +12997,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>80</v>
@@ -12988,24 +13015,24 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13028,17 +13055,15 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>535</v>
-      </c>
+        <v>556</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13087,7 +13112,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>80</v>
@@ -13096,33 +13121,33 @@
         <v>91</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>187</v>
+        <v>82</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>536</v>
+        <v>103</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>538</v>
+        <v>559</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13145,7 +13170,7 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="L94" t="s" s="2">
         <v>112</v>
@@ -13154,7 +13179,7 @@
         <v>113</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13204,7 +13229,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13222,10 +13247,10 @@
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13236,10 +13261,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13319,7 +13344,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
@@ -13340,7 +13365,7 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>415</v>
@@ -13351,10 +13376,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13377,13 +13402,13 @@
         <v>82</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -13434,7 +13459,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
@@ -13452,10 +13477,10 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13466,10 +13491,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13581,10 +13606,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13698,10 +13723,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13783,7 +13808,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
@@ -13815,10 +13840,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13844,13 +13869,13 @@
         <v>218</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13879,10 +13904,10 @@
         <v>145</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
@@ -13898,7 +13923,7 @@
         <v>314</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>91</v>
@@ -13916,27 +13941,27 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>82</v>
@@ -13961,13 +13986,13 @@
         <v>218</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -13997,7 +14022,7 @@
       </c>
       <c r="Y101" s="2"/>
       <c r="Z101" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14015,7 +14040,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>91</v>
@@ -14033,24 +14058,24 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14073,13 +14098,13 @@
         <v>82</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14106,13 +14131,13 @@
         <v>82</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>588</v>
+        <v>82</v>
       </c>
       <c r="Z102" t="s" s="2">
-        <v>589</v>
+        <v>82</v>
       </c>
       <c r="AA102" t="s" s="2">
         <v>82</v>
@@ -14130,7 +14155,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>587</v>
+        <v>108</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>80</v>
@@ -14142,41 +14167,41 @@
         <v>82</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>591</v>
+        <v>109</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO102" t="s" s="2">
-        <v>592</v>
+        <v>82</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>82</v>
+        <v>203</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>82</v>
@@ -14188,16 +14213,16 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>594</v>
+        <v>111</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>113</v>
+        <v>205</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>595</v>
+        <v>206</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" t="s" s="2">
@@ -14235,40 +14260,40 @@
         <v>82</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC103" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>593</v>
+        <v>117</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH103" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI103" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK103" t="s" s="2">
-        <v>596</v>
+        <v>82</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>590</v>
+        <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>597</v>
+        <v>109</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14279,14 +14304,14 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14302,21 +14327,23 @@
         <v>82</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>600</v>
+        <v>137</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>112</v>
+        <v>430</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>113</v>
+        <v>431</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="O104" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="O104" t="s" s="2">
+        <v>433</v>
+      </c>
       <c r="P104" t="s" s="2">
         <v>82</v>
       </c>
@@ -14325,7 +14352,7 @@
         <v>82</v>
       </c>
       <c r="S104" t="s" s="2">
-        <v>82</v>
+        <v>591</v>
       </c>
       <c r="T104" t="s" s="2">
         <v>82</v>
@@ -14364,7 +14391,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>598</v>
+        <v>434</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>80</v>
@@ -14385,21 +14412,21 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>602</v>
+        <v>435</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO104" t="s" s="2">
-        <v>82</v>
+        <v>436</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14410,7 +14437,7 @@
         <v>80</v>
       </c>
       <c r="G105" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H105" t="s" s="2">
         <v>82</v>
@@ -14419,21 +14446,23 @@
         <v>82</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>604</v>
+        <v>105</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>112</v>
+        <v>594</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>113</v>
+        <v>439</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="O105" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="O105" t="s" s="2">
+        <v>441</v>
+      </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
       </c>
@@ -14481,13 +14510,13 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>603</v>
+        <v>442</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH105" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI105" t="s" s="2">
         <v>82</v>
@@ -14496,18 +14525,484 @@
         <v>103</v>
       </c>
       <c r="AK105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO105" t="s" s="2">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>595</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO106" t="s" s="2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AN107" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO107" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
+      <c r="B108" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM108" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AN108" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO108" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N109" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AL109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM109" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="AN109" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
     </row>

--- a/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-changed.xlsx
+++ b/ig/ch-emed-epr/StructureDefinition-ch-emed-epr-medicationrequest-changed.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4042" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3745" uniqueCount="566">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -276,8 +276,8 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it should not have a sequence number. 
-              If more than one dosage element is present, the base entry has the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-dosage-medreq:If one dosage element is present, it SHALL NOT have a sequence number. 
+              If more than one dosage element is present, the base entry SHALL have the sequence number 1. {(dosageInstruction.count() &gt; 1 implies dosageInstruction.where($this.conformsTo('http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-dosage-medicationrequest') and sequence = 1).exists()) 
          and (dosageInstruction.count() = 1 implies dosageInstruction.single().sequence.exists().not())}split-dosage-instruction-unit-must-match-base-dosage-instruction:The unit for doseAndRate of different dosages (split dosage) belonging to the same statement/request/dispense must match. {(dosageInstruction.count() &gt; 1) implies dosageInstruction.doseAndRate.dose.ofType(Quantity).code.union(dosageInstruction.doseAndRate.dose.ofType(Range).low.code).union(dosageInstruction.doseAndRate.dose.ofType(Range).high.code).union(dosageInstruction.doseAndRate.rate.numerator.code).count() = 1}</t>
   </si>
   <si>
@@ -426,7 +426,7 @@
     <t>MedicationRequest.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -476,7 +476,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -520,7 +520,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -610,7 +610,7 @@
     <t>MedicationRequest.modifierExtension</t>
   </si>
   <si>
-    <t>All modifiers SHALL be documented in the profile, in order to be usable.</t>
+    <t>...All modifiers SHALL be documented in the profile, in order to be usable.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -619,7 +619,7 @@
     <t>MedicationRequest.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-emed/StructureDefinition/ch-emed-uuid-identifier}
 </t>
   </si>
   <si>
@@ -647,230 +647,56 @@
     <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
   </si>
   <si>
-    <t>MedicationRequest.identifier.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+    <t>MedicationRequest.status</t>
+  </si>
+  <si>
+    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
+  </si>
+  <si>
+    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>active</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.type</t>
+    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Request.status</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>MedicationRequest.statusReason</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>CX.5</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>urn:ietf:rfc:3986</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>CX.4 / EI-2-4</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.value</t>
-  </si>
-  <si>
-    <t>Identifier value as UUID</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>CX.1 / EI.1</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>CX.7 + CX.8</t>
-  </si>
-  <si>
-    <t>MedicationRequest.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally, this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Request.status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.statusReason</t>
-  </si>
-  <si>
     <t>This is generally only used for "exception" statuses such as "suspended" or "cancelled". The reason why the MedicationRequest was created at all is captured in reasonCode, not here.</t>
   </si>
   <si>
     <t>Identifies the reasons for a given status.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-status-reason|4.0.1</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -922,7 +748,7 @@
     <t>A coded concept identifying the category of medication request.  For example, where the medication is to be consumed or administered, or the type of medication treatment.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-category|4.0.1</t>
   </si>
   <si>
     <t>Message/Body/NewRx/MedicationPrescribed/Directions@@ -976,7 +802,7 @@
   </si>
   <si>
     <t>boolean
-Reference(Patient|Practitioner|PractitionerRole|RelatedPerson|Organization)</t>
+Reference(Patient|4.0.1|Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)</t>
   </si>
   <si>
     <t>.participation[typeCode=INF].role</t>
@@ -1078,6 +904,19 @@
     <t>MedicationRequest.subject.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject.reference</t>
   </si>
   <si>
@@ -1113,13 +952,17 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
   </si>
   <si>
     <t>MedicationRequest.subject.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
   </si>
   <si>
     <t>Logical reference, when literal reference is not known</t>
@@ -1158,7 +1001,7 @@
     <t>MedicationRequest.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1180,7 +1023,7 @@
     <t>MedicationRequest.supportingInformation</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1281,7 +1124,7 @@
     <t>MedicationRequest.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|Device|RelatedPerson|CareTeam)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1|CareTeam|4.0.1)
 </t>
   </si>
   <si>
@@ -1303,7 +1146,7 @@
     <t>Identifies the type of individual that is desired to administer the medication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/performer-role</t>
+    <t>http://hl7.org/fhir/ValueSet/performer-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1315,7 +1158,7 @@
     <t>MedicationRequest.recorder</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1347,7 +1190,7 @@
     <t>A coded concept indicating why the medication was ordered.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
+    <t>http://hl7.org/fhir/ValueSet/condition-code|4.0.1</t>
   </si>
   <si>
     <t>Request.reasonCode</t>
@@ -1422,7 +1265,7 @@
     <t>MedicationRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1)
 </t>
   </si>
   <si>
@@ -1454,7 +1297,7 @@
     <t>MedicationRequest.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ServiceRequest|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|MedicationRequest|4.0.1|ServiceRequest|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1485,7 +1328,7 @@
     <t>Identifies the overall pattern of medication administratio.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy</t>
+    <t>http://hl7.org/fhir/ValueSet/medicationrequest-course-of-therapy|4.0.1</t>
   </si>
   <si>
     <t>Act.code where classCode = LIST and moodCode = EVN</t>
@@ -1494,7 +1337,7 @@
     <t>MedicationRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1535,7 +1378,7 @@
     <t>MedicationRequest.note.author[x]</t>
   </si>
   <si>
-    <t>Reference(Practitioner|Patient|RelatedPerson|Organization)
+    <t>Reference(Practitioner|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1|Organization|4.0.1)
 string</t>
   </si>
   <si>
@@ -1589,7 +1432,7 @@
     <t>How the medication should be taken</t>
   </si>
   <si>
-    <t>Indicates how the medication is/was taken or should be taken by the patient.</t>
+    <t>Indicates how the medication is to be used by the patient.</t>
   </si>
   <si>
     <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
@@ -1599,7 +1442,10 @@
 </t>
   </si>
   <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=INT]</t>
+    <t>Request.occurrence[x]</t>
+  </si>
+  <si>
+    <t>see dosageInstruction mapping</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:baseEntry</t>
@@ -1615,10 +1461,6 @@
     <t>Base entry of the dosage instruction</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ch-dosage-4:For split dosage timing event and dose/rate are required {sequence.exists() implies (timing.repeat.when.exists() and doseAndRate.dose.exists())}ch-dosage-3:Patient instruction/free text dosage instruction, or timing and dose/rate has to be specified {patientInstruction.exists() or (timing.exists() and doseAndRate.exists())}</t>
-  </si>
-  <si>
     <t>MedicationRequest.dosageInstruction:additionalEntry</t>
   </si>
   <si>
@@ -1719,6 +1561,10 @@
     <t>MedicationRequest.dispenseRequest.validityPeriod</t>
   </si>
   <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
     <t>Period of validity of the prescription</t>
   </si>
   <si>
@@ -1793,6 +1639,10 @@
   </si>
   <si>
     <t>MedicationRequest.dispenseRequest.performer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
@@ -1910,7 +1760,7 @@
     <t>MedicationRequest.priorPrescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
+    <t xml:space="preserve">Reference(MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1930,7 +1780,7 @@
 Drug Utilization Review (DUR)Alert</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
+    <t xml:space="preserve">Reference(DetectedIssue|4.0.1)
 </t>
   </si>
   <si>
@@ -1943,7 +1793,7 @@
     <t>MedicationRequest.eventHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2260,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO109"/>
+  <dimension ref="A1:AO101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2269,46 +2119,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="73.6171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="60.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="63.11328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="51.68359375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="20.83203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.1953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="236.34765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="161.5859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="81.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="138.53125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="69.7421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="50.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="128.41796875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="245.42578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="110.09375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4660,7 +4510,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4669,21 +4519,23 @@
         <v>82</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>106</v>
+        <v>202</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>82</v>
@@ -4693,7 +4545,7 @@
         <v>82</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>82</v>
+        <v>205</v>
       </c>
       <c r="T21" t="s" s="2">
         <v>82</v>
@@ -4708,13 +4560,13 @@
         <v>82</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>82</v>
+        <v>207</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>82</v>
+        <v>208</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>82</v>
@@ -4732,10 +4584,10 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>108</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>91</v>
@@ -4744,19 +4596,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>82</v>
+        <v>209</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>109</v>
+        <v>211</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>82</v>
+        <v>212</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4764,21 +4616,21 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>82</v>
@@ -4790,16 +4642,16 @@
         <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4825,52 +4677,52 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>82</v>
+        <v>216</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>109</v>
+        <v>219</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4881,10 +4733,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4892,7 +4744,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>91</v>
@@ -4910,17 +4762,15 @@
         <v>155</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>211</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>82</v>
       </c>
@@ -4929,7 +4779,7 @@
         <v>82</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>82</v>
@@ -4944,13 +4794,13 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
@@ -4968,10 +4818,10 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>91</v>
@@ -4983,27 +4833,27 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>82</v>
+        <v>227</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5014,7 +4864,7 @@
         <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>82</v>
@@ -5023,23 +4873,21 @@
         <v>82</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>219</v>
+        <v>112</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
@@ -5063,13 +4911,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5087,13 +4935,13 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>82</v>
@@ -5105,24 +4953,24 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>82</v>
+        <v>229</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>226</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5130,7 +4978,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>91</v>
@@ -5145,32 +4993,28 @@
         <v>92</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>228</v>
+        <v>112</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>230</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>231</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>232</v>
+        <v>82</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="U25" t="s" s="2">
         <v>82</v>
@@ -5182,13 +5026,13 @@
         <v>82</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>82</v>
+        <v>238</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>82</v>
@@ -5206,7 +5050,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5221,27 +5065,27 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>82</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>236</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5249,31 +5093,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>243</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5287,7 +5131,7 @@
         <v>82</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>241</v>
+        <v>82</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>82</v>
@@ -5344,21 +5188,21 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>244</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5381,13 +5225,13 @@
         <v>92</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>112</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>248</v>
+        <v>113</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -5438,7 +5282,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5465,15 +5309,15 @@
         <v>82</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>251</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5481,7 +5325,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>91</v>
@@ -5496,16 +5340,16 @@
         <v>92</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5543,22 +5387,20 @@
         <v>82</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>91</v>
@@ -5570,35 +5412,37 @@
         <v>103</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>82</v>
+        <v>258</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>82</v>
+        <v>259</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>82</v>
+        <v>261</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="C29" s="2"/>
+        <v>251</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>91</v>
@@ -5607,22 +5451,22 @@
         <v>82</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>155</v>
+        <v>265</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5633,7 +5477,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>264</v>
+        <v>82</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5648,13 +5492,13 @@
         <v>82</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>265</v>
+        <v>82</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>266</v>
+        <v>82</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>82</v>
@@ -5672,7 +5516,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>91</v>
@@ -5687,27 +5531,27 @@
         <v>103</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>82</v>
+        <v>262</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5715,7 +5559,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>91</v>
@@ -5727,19 +5571,19 @@
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>218</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>112</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5765,13 +5609,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>273</v>
+        <v>82</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5789,10 +5633,10 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>91</v>
@@ -5804,19 +5648,19 @@
         <v>103</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM30" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AN30" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>82</v>
       </c>
     </row>
     <row r="31">
@@ -5832,7 +5676,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>91</v>
@@ -5841,23 +5685,21 @@
         <v>82</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>278</v>
+        <v>106</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5867,7 +5709,7 @@
         <v>82</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>281</v>
+        <v>82</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>82</v>
@@ -5882,13 +5724,13 @@
         <v>82</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>282</v>
+        <v>82</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>283</v>
+        <v>82</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>82</v>
@@ -5906,10 +5748,10 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>277</v>
+        <v>108</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>91</v>
@@ -5918,19 +5760,19 @@
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>284</v>
+        <v>82</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -5938,14 +5780,14 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5964,16 +5806,16 @@
         <v>82</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>218</v>
+        <v>111</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5999,31 +5841,31 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>289</v>
+        <v>82</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>290</v>
+        <v>82</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>287</v>
+        <v>117</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -6035,19 +5877,19 @@
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>291</v>
+        <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>286</v>
+        <v>82</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6055,10 +5897,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6066,7 +5908,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>91</v>
@@ -6081,15 +5923,17 @@
         <v>92</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6114,13 +5958,13 @@
         <v>82</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>212</v>
+        <v>82</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>294</v>
+        <v>82</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>295</v>
+        <v>82</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>82</v>
@@ -6138,7 +5982,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6147,22 +5991,22 @@
         <v>91</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>296</v>
+        <v>82</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>298</v>
+        <v>82</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6170,10 +6014,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6184,28 +6028,28 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -6231,13 +6075,13 @@
         <v>82</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>82</v>
@@ -6255,7 +6099,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6276,7 +6120,7 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>304</v>
+        <v>178</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6287,10 +6131,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6313,15 +6157,17 @@
         <v>92</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6370,7 +6216,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6391,7 +6237,7 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6402,10 +6248,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6413,7 +6259,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>91</v>
@@ -6428,16 +6274,16 @@
         <v>92</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>309</v>
+        <v>105</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6475,20 +6321,22 @@
         <v>82</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>91</v>
@@ -6500,31 +6348,29 @@
         <v>103</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>315</v>
+        <v>82</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>317</v>
+        <v>178</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>319</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>321</v>
-      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6542,19 +6388,19 @@
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6607,7 +6453,7 @@
         <v>308</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>91</v>
@@ -6619,27 +6465,27 @@
         <v>103</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>316</v>
+        <v>210</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6650,7 +6496,7 @@
         <v>91</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6659,20 +6505,18 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6709,25 +6553,23 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>82</v>
@@ -6736,35 +6578,37 @@
         <v>103</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>333</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="C39" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="D39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>91</v>
@@ -6779,13 +6623,13 @@
         <v>82</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>105</v>
+        <v>324</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6836,31 +6680,31 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>108</v>
+        <v>315</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>82</v>
+        <v>320</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>109</v>
+        <v>321</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>82</v>
+        <v>313</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
@@ -6868,21 +6712,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>82</v>
@@ -6891,20 +6735,18 @@
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>204</v>
+        <v>328</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6941,54 +6783,54 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>117</v>
+        <v>326</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>82</v>
+        <v>330</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>109</v>
+        <v>332</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>82</v>
+        <v>333</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>82</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7011,7 +6853,7 @@
         <v>92</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>105</v>
+        <v>336</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>337</v>
@@ -7019,9 +6861,7 @@
       <c r="M41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="N41" t="s" s="2">
-        <v>339</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7070,7 +6910,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7079,22 +6919,22 @@
         <v>91</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>82</v>
+        <v>339</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>178</v>
+        <v>274</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
@@ -7102,10 +6942,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7125,20 +6965,18 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>343</v>
+        <v>106</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7163,13 +7001,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7187,7 +7025,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>108</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7199,7 +7037,7 @@
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7208,7 +7046,7 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>82</v>
@@ -7219,21 +7057,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7242,19 +7080,19 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>350</v>
+        <v>280</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>351</v>
+        <v>281</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>352</v>
+        <v>282</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7292,31 +7130,31 @@
         <v>82</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>82</v>
@@ -7325,7 +7163,7 @@
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>354</v>
+        <v>109</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>82</v>
@@ -7336,10 +7174,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7347,7 +7185,7 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>91</v>
@@ -7365,13 +7203,13 @@
         <v>105</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>356</v>
+        <v>284</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>357</v>
+        <v>285</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>358</v>
+        <v>286</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7421,7 +7259,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>359</v>
+        <v>287</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7430,7 +7268,7 @@
         <v>91</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>82</v>
+        <v>288</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>103</v>
@@ -7453,10 +7291,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7476,19 +7314,19 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>361</v>
+        <v>127</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>112</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>113</v>
+        <v>291</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>362</v>
+        <v>292</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7514,13 +7352,13 @@
         <v>82</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>82</v>
+        <v>293</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>82</v>
+        <v>294</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>82</v>
@@ -7538,7 +7376,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>360</v>
+        <v>295</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7553,27 +7391,27 @@
         <v>103</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>363</v>
+        <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>364</v>
+        <v>178</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>366</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7581,10 +7419,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7593,18 +7431,20 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>369</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>300</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7641,23 +7481,25 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>367</v>
+        <v>301</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7666,16 +7508,16 @@
         <v>103</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>373</v>
+        <v>302</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7683,20 +7525,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>346</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>91</v>
@@ -7708,18 +7548,20 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>304</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7768,13 +7610,13 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>367</v>
+        <v>307</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
@@ -7783,16 +7625,16 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>372</v>
+        <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>373</v>
+        <v>178</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7800,10 +7642,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7811,7 +7653,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>91</v>
@@ -7823,16 +7665,16 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>380</v>
+        <v>112</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>381</v>
+        <v>113</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7883,7 +7725,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7898,27 +7740,27 @@
         <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>383</v>
+        <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>384</v>
+        <v>350</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>386</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7926,7 +7768,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>91</v>
@@ -7941,15 +7783,17 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>388</v>
+        <v>214</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>389</v>
+        <v>112</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -7974,13 +7818,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>82</v>
+        <v>354</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -7998,7 +7842,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>387</v>
+        <v>352</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8013,16 +7857,16 @@
         <v>103</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>356</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>392</v>
+        <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8030,10 +7874,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8056,13 +7900,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>107</v>
+        <v>361</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8113,7 +7957,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>108</v>
+        <v>358</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8125,7 +7969,7 @@
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8134,10 +7978,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>109</v>
+        <v>362</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8145,14 +7989,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>394</v>
+        <v>364</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8171,16 +8015,16 @@
         <v>82</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>204</v>
+        <v>365</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8206,31 +8050,31 @@
         <v>82</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>82</v>
+        <v>368</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>82</v>
+        <v>369</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>117</v>
+        <v>364</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8242,30 +8086,30 @@
         <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>82</v>
+        <v>371</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>109</v>
+        <v>372</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>82</v>
+        <v>373</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8273,7 +8117,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>91</v>
@@ -8285,20 +8129,18 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8347,7 +8189,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>108</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8356,10 +8198,10 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>341</v>
+        <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8368,7 +8210,7 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>82</v>
@@ -8379,10 +8221,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8393,7 +8235,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>82</v>
@@ -8402,20 +8244,18 @@
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>343</v>
+        <v>112</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>345</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8440,43 +8280,43 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>347</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>348</v>
+        <v>117</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8485,7 +8325,7 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>82</v>
@@ -8496,10 +8336,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8510,7 +8350,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8522,18 +8362,20 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>192</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8581,13 +8423,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8602,21 +8444,21 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8624,7 +8466,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>91</v>
@@ -8642,15 +8484,17 @@
         <v>105</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
+        <v>387</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8698,7 +8542,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8719,21 +8563,21 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>178</v>
+        <v>391</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8744,7 +8588,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>82</v>
@@ -8756,7 +8600,7 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="L56" t="s" s="2">
         <v>112</v>
@@ -8764,7 +8608,9 @@
       <c r="M56" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -8813,13 +8659,13 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
@@ -8828,16 +8674,16 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>210</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>403</v>
+        <v>373</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8845,10 +8691,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8859,7 +8705,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>82</v>
@@ -8871,7 +8717,7 @@
         <v>92</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>218</v>
+        <v>399</v>
       </c>
       <c r="L57" t="s" s="2">
         <v>112</v>
@@ -8879,9 +8725,7 @@
       <c r="M57" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>405</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8906,13 +8750,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>406</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -8930,13 +8774,13 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
@@ -8945,13 +8789,13 @@
         <v>103</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -8962,10 +8806,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8976,7 +8820,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -8985,16 +8829,16 @@
         <v>82</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>412</v>
+        <v>112</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>413</v>
+        <v>113</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9045,13 +8889,13 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
@@ -9066,10 +8910,10 @@
         <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>414</v>
+        <v>401</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
@@ -9077,10 +8921,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9100,20 +8944,18 @@
         <v>82</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>218</v>
+        <v>404</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>417</v>
+        <v>112</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
@@ -9138,13 +8980,13 @@
         <v>82</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>420</v>
+        <v>82</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>421</v>
+        <v>82</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>82</v>
@@ -9162,7 +9004,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>403</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9177,27 +9019,27 @@
         <v>103</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>423</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>426</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9217,19 +9059,21 @@
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>105</v>
+        <v>297</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>408</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9277,7 +9121,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9289,16 +9133,16 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>82</v>
+        <v>409</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>109</v>
+        <v>410</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9309,10 +9153,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9323,7 +9167,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9335,7 +9179,7 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>112</v>
@@ -9343,7 +9187,9 @@
       <c r="M61" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N61" s="2"/>
+      <c r="N61" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9368,43 +9214,43 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>413</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>414</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB61" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC61" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>117</v>
+        <v>411</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9413,7 +9259,7 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>415</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9424,10 +9270,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>429</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9447,23 +9293,19 @@
         <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>137</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>430</v>
+        <v>112</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9511,7 +9353,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9526,27 +9368,27 @@
         <v>103</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9554,10 +9396,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
@@ -9566,23 +9408,19 @@
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>421</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>441</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9630,13 +9468,13 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>82</v>
@@ -9645,27 +9483,27 @@
         <v>103</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>82</v>
+        <v>424</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>82</v>
+        <v>425</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>444</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9676,7 +9514,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -9688,7 +9526,7 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>446</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>112</v>
@@ -9696,9 +9534,7 @@
       <c r="M64" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>447</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9747,31 +9583,31 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>445</v>
+        <v>108</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>448</v>
+        <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>268</v>
+        <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>449</v>
+        <v>109</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>425</v>
+        <v>82</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -9779,10 +9615,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9802,10 +9638,10 @@
         <v>82</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>451</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
         <v>112</v>
@@ -9850,19 +9686,19 @@
         <v>82</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>450</v>
+        <v>117</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9874,16 +9710,16 @@
         <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>453</v>
+        <v>82</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9894,10 +9730,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>429</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9908,7 +9744,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -9920,15 +9756,17 @@
         <v>92</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>127</v>
+        <v>430</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>112</v>
+        <v>431</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>113</v>
       </c>
-      <c r="N66" s="2"/>
+      <c r="N66" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -9977,13 +9815,13 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
@@ -9998,21 +9836,21 @@
         <v>82</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>435</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10023,7 +9861,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10035,7 +9873,7 @@
         <v>92</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>327</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>112</v>
@@ -10092,13 +9930,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10107,27 +9945,27 @@
         <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>457</v>
+        <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>458</v>
+        <v>437</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>459</v>
+        <v>438</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10135,7 +9973,7 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>91</v>
@@ -10150,18 +9988,16 @@
         <v>92</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>192</v>
+        <v>439</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>112</v>
+        <v>440</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>113</v>
+        <v>441</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>460</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10209,10 +10045,10 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>91</v>
@@ -10224,27 +10060,27 @@
         <v>103</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>461</v>
+        <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>82</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10252,10 +10088,10 @@
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10267,16 +10103,16 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>218</v>
+        <v>445</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>112</v>
+        <v>446</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>113</v>
+        <v>447</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -10302,37 +10138,35 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>465</v>
+        <v>82</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>466</v>
+        <v>82</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB69" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="AC69" s="2"/>
       <c r="AD69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10341,13 +10175,13 @@
         <v>103</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>82</v>
+        <v>450</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10358,21 +10192,23 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>468</v>
+        <v>452</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="D70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>82</v>
@@ -10384,15 +10220,17 @@
         <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>112</v>
+        <v>455</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>82</v>
@@ -10441,7 +10279,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10456,13 +10294,13 @@
         <v>103</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>471</v>
+        <v>451</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10473,12 +10311,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="D71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10499,15 +10339,17 @@
         <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
@@ -10556,7 +10398,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>472</v>
+        <v>444</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10571,13 +10413,13 @@
         <v>103</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>478</v>
+        <v>451</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10588,10 +10430,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10614,13 +10456,13 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>461</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>112</v>
+        <v>462</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>113</v>
+        <v>463</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10671,7 +10513,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>108</v>
+        <v>460</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10683,16 +10525,16 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>109</v>
+        <v>465</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10703,10 +10545,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10717,7 +10559,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -10729,13 +10571,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10774,31 +10616,31 @@
         <v>82</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>115</v>
+        <v>82</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -10807,7 +10649,7 @@
         <v>82</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>82</v>
+        <v>109</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10818,21 +10660,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>82</v>
@@ -10841,19 +10683,19 @@
         <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>482</v>
+        <v>111</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>483</v>
+        <v>280</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>113</v>
+        <v>281</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>484</v>
+        <v>282</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10903,19 +10745,19 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>485</v>
+        <v>117</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -10924,21 +10766,21 @@
         <v>82</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>486</v>
+        <v>109</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO74" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10949,27 +10791,29 @@
         <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11018,19 +10862,19 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11039,21 +10883,21 @@
         <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>490</v>
+        <v>470</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11061,7 +10905,7 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>91</v>
@@ -11073,18 +10917,20 @@
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>492</v>
+        <v>112</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>471</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11133,10 +10979,10 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>91</v>
@@ -11154,21 +11000,21 @@
         <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>178</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11176,10 +11022,10 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>82</v>
@@ -11191,17 +11037,15 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>497</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>498</v>
+        <v>106</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>500</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11238,29 +11082,31 @@
         <v>82</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AC77" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>496</v>
+        <v>108</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
@@ -11269,7 +11115,7 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
@@ -11280,23 +11126,21 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C78" t="s" s="2">
-        <v>504</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11308,16 +11152,16 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>505</v>
+        <v>111</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>506</v>
+        <v>280</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>499</v>
+        <v>281</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>500</v>
+        <v>282</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11367,7 +11211,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>496</v>
+        <v>117</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11379,7 +11223,7 @@
         <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>507</v>
+        <v>118</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11388,7 +11232,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>502</v>
+        <v>109</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11399,14 +11243,12 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>496</v>
-      </c>
-      <c r="C79" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
         <v>82</v>
       </c>
@@ -11415,28 +11257,28 @@
         <v>80</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>510</v>
+        <v>111</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>511</v>
+        <v>180</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>499</v>
+        <v>181</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>500</v>
+        <v>189</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11486,7 +11328,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>496</v>
+        <v>469</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11498,7 +11340,7 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
@@ -11507,7 +11349,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>502</v>
+        <v>82</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11518,10 +11360,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11544,13 +11386,13 @@
         <v>82</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>513</v>
+        <v>477</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>514</v>
+        <v>478</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>515</v>
+        <v>479</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -11601,7 +11443,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>512</v>
+        <v>476</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -11619,10 +11461,10 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>517</v>
+        <v>480</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11633,10 +11475,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>518</v>
+        <v>481</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11659,13 +11501,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>482</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>106</v>
+        <v>483</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>107</v>
+        <v>484</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11716,7 +11558,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>108</v>
+        <v>481</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11728,7 +11570,7 @@
         <v>82</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>82</v>
@@ -11737,7 +11579,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>109</v>
+        <v>485</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11748,21 +11590,21 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>519</v>
+        <v>486</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>82</v>
@@ -11774,17 +11616,15 @@
         <v>82</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>111</v>
+        <v>482</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>82</v>
@@ -11833,19 +11673,19 @@
         <v>82</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>82</v>
@@ -11854,7 +11694,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>109</v>
+        <v>485</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11865,10 +11705,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>520</v>
+        <v>487</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11879,30 +11719,32 @@
         <v>80</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>111</v>
+        <v>488</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>180</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>181</v>
+        <v>490</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="O83" s="2"/>
+        <v>491</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>492</v>
+      </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
       </c>
@@ -11950,28 +11792,28 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>521</v>
+        <v>487</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>82</v>
+        <v>494</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -11982,10 +11824,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12008,16 +11850,16 @@
         <v>82</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>112</v>
+        <v>497</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>113</v>
+        <v>498</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12067,7 +11909,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -12085,24 +11927,24 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>82</v>
+        <v>500</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO84" t="s" s="2">
-        <v>82</v>
+        <v>502</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12125,13 +11967,13 @@
         <v>82</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>106</v>
+        <v>504</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12182,7 +12024,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>108</v>
+        <v>503</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -12194,41 +12036,41 @@
         <v>82</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>109</v>
+        <v>507</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO85" t="s" s="2">
-        <v>82</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>82</v>
@@ -12240,16 +12082,16 @@
         <v>82</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>111</v>
+        <v>482</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>205</v>
+        <v>113</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>206</v>
+        <v>510</v>
       </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
@@ -12299,28 +12141,28 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>117</v>
+        <v>509</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>82</v>
+        <v>511</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>109</v>
+        <v>512</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12331,10 +12173,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12345,29 +12187,27 @@
         <v>80</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>111</v>
+        <v>514</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12416,19 +12256,19 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>82</v>
@@ -12437,10 +12277,10 @@
         <v>82</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>82</v>
+        <v>515</v>
       </c>
       <c r="AN87" t="s" s="2">
-        <v>82</v>
+        <v>363</v>
       </c>
       <c r="AO87" t="s" s="2">
         <v>82</v>
@@ -12448,10 +12288,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12474,13 +12314,13 @@
         <v>82</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>529</v>
+        <v>461</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>530</v>
+        <v>517</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>531</v>
+        <v>518</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -12531,7 +12371,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>80</v>
@@ -12549,10 +12389,10 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12563,10 +12403,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12589,13 +12429,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>535</v>
+        <v>106</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>536</v>
+        <v>107</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12646,7 +12486,7 @@
         <v>82</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>533</v>
+        <v>108</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>80</v>
@@ -12658,7 +12498,7 @@
         <v>82</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>82</v>
@@ -12667,7 +12507,7 @@
         <v>82</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>537</v>
+        <v>109</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
@@ -12678,21 +12518,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>82</v>
@@ -12704,15 +12544,17 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>534</v>
+        <v>111</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N90" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>82</v>
@@ -12761,19 +12603,19 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>538</v>
+        <v>117</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>82</v>
@@ -12782,7 +12624,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>537</v>
+        <v>109</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12793,10 +12635,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12807,32 +12649,30 @@
         <v>80</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>540</v>
+        <v>180</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>541</v>
+        <v>181</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>82</v>
       </c>
@@ -12880,28 +12720,28 @@
         <v>82</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>539</v>
+        <v>469</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK91" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>545</v>
+        <v>82</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -12912,10 +12752,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12923,7 +12763,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>91</v>
@@ -12938,16 +12778,16 @@
         <v>82</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>547</v>
+        <v>214</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>548</v>
+        <v>525</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>549</v>
+        <v>526</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>550</v>
+        <v>527</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12973,34 +12813,32 @@
         <v>82</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>82</v>
+        <v>528</v>
       </c>
       <c r="Z92" t="s" s="2">
-        <v>82</v>
+        <v>529</v>
       </c>
       <c r="AA92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC92" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="AC92" s="2"/>
       <c r="AD92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>82</v>
+        <v>257</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>91</v>
@@ -13015,26 +12853,28 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>551</v>
+        <v>519</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO92" t="s" s="2">
-        <v>553</v>
+        <v>531</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="C93" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>533</v>
+      </c>
       <c r="D93" t="s" s="2">
         <v>82</v>
       </c>
@@ -13055,15 +12895,17 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>529</v>
+        <v>214</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>556</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>526</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>527</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>82</v>
@@ -13088,13 +12930,11 @@
         <v>82</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y93" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="Y93" s="2"/>
       <c r="Z93" t="s" s="2">
-        <v>82</v>
+        <v>534</v>
       </c>
       <c r="AA93" t="s" s="2">
         <v>82</v>
@@ -13112,10 +12952,10 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>91</v>
@@ -13130,24 +12970,24 @@
         <v>82</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>557</v>
+        <v>519</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO93" t="s" s="2">
-        <v>559</v>
+        <v>531</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13170,17 +13010,15 @@
         <v>82</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>534</v>
+        <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>561</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>82</v>
@@ -13229,7 +13067,7 @@
         <v>82</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>560</v>
+        <v>108</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>80</v>
@@ -13241,16 +13079,16 @@
         <v>82</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>562</v>
+        <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>563</v>
+        <v>109</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13261,21 +13099,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>564</v>
+        <v>537</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>564</v>
+        <v>538</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>82</v>
+        <v>279</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>82</v>
@@ -13287,15 +13125,17 @@
         <v>82</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>253</v>
+        <v>111</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>112</v>
+        <v>280</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>281</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>282</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13332,31 +13172,31 @@
         <v>82</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>564</v>
+        <v>117</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>82</v>
@@ -13365,10 +13205,10 @@
         <v>82</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>565</v>
+        <v>109</v>
       </c>
       <c r="AN95" t="s" s="2">
-        <v>415</v>
+        <v>82</v>
       </c>
       <c r="AO95" t="s" s="2">
         <v>82</v>
@@ -13376,10 +13216,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>566</v>
+        <v>539</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>566</v>
+        <v>540</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13390,7 +13230,7 @@
         <v>80</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>82</v>
@@ -13399,19 +13239,23 @@
         <v>82</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>513</v>
+        <v>137</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>567</v>
+        <v>378</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>568</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>379</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>82</v>
       </c>
@@ -13420,7 +13264,7 @@
         <v>82</v>
       </c>
       <c r="S96" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="T96" t="s" s="2">
         <v>82</v>
@@ -13459,13 +13303,13 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>566</v>
+        <v>382</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>82</v>
@@ -13477,24 +13321,24 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>570</v>
+        <v>383</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO96" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>571</v>
+        <v>542</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>571</v>
+        <v>543</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13514,19 +13358,23 @@
         <v>82</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K97" t="s" s="2">
         <v>105</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>106</v>
+        <v>544</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>387</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
       </c>
@@ -13574,7 +13422,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>108</v>
+        <v>390</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>80</v>
@@ -13586,7 +13434,7 @@
         <v>82</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>82</v>
+        <v>103</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>82</v>
@@ -13595,32 +13443,32 @@
         <v>82</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>109</v>
+        <v>391</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO97" t="s" s="2">
-        <v>82</v>
+        <v>392</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>572</v>
+        <v>545</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>203</v>
+        <v>82</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>82</v>
@@ -13632,17 +13480,15 @@
         <v>82</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>111</v>
+        <v>214</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>204</v>
+        <v>112</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -13667,13 +13513,13 @@
         <v>82</v>
       </c>
       <c r="X98" t="s" s="2">
-        <v>82</v>
+        <v>145</v>
       </c>
       <c r="Y98" t="s" s="2">
-        <v>82</v>
+        <v>546</v>
       </c>
       <c r="Z98" t="s" s="2">
-        <v>82</v>
+        <v>547</v>
       </c>
       <c r="AA98" t="s" s="2">
         <v>82</v>
@@ -13691,42 +13537,42 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>117</v>
+        <v>545</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>109</v>
+        <v>549</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO98" t="s" s="2">
-        <v>82</v>
+        <v>550</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>573</v>
+        <v>551</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13737,28 +13583,28 @@
         <v>80</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>111</v>
+        <v>552</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>180</v>
+        <v>112</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>181</v>
+        <v>113</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>189</v>
+        <v>553</v>
       </c>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
@@ -13808,28 +13654,28 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>521</v>
+        <v>551</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
@@ -13840,21 +13686,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>82</v>
+        <v>557</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>82</v>
@@ -13866,16 +13712,16 @@
         <v>82</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>218</v>
+        <v>558</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>575</v>
+        <v>112</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>576</v>
+        <v>113</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>577</v>
+        <v>559</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
@@ -13901,35 +13747,37 @@
         <v>82</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>578</v>
+        <v>82</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>579</v>
+        <v>82</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AC100" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>82</v>
@@ -13941,28 +13789,26 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>580</v>
+        <v>560</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO100" t="s" s="2">
-        <v>581</v>
+        <v>82</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>582</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>583</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
         <v>82</v>
       </c>
@@ -13971,7 +13817,7 @@
         <v>80</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>82</v>
@@ -13983,16 +13829,16 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>218</v>
+        <v>562</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>575</v>
+        <v>112</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>576</v>
+        <v>113</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>577</v>
+        <v>563</v>
       </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
@@ -14018,11 +13864,13 @@
         <v>82</v>
       </c>
       <c r="X101" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="Y101" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z101" t="s" s="2">
-        <v>584</v>
+        <v>82</v>
       </c>
       <c r="AA101" t="s" s="2">
         <v>82</v>
@@ -14040,13 +13888,13 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>574</v>
+        <v>561</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>82</v>
@@ -14055,954 +13903,18 @@
         <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>569</v>
+        <v>82</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO101" t="s" s="2">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>585</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO102" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>588</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N103" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AN103" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO103" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>590</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E104" s="2"/>
-      <c r="F104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="P104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q104" s="2"/>
-      <c r="R104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM104" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="AN104" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO104" t="s" s="2">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="C105" s="2"/>
-      <c r="D105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>594</v>
-      </c>
-      <c r="M105" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O105" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="P105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q105" s="2"/>
-      <c r="R105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM105" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AN105" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO105" t="s" s="2">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E106" s="2"/>
-      <c r="F106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q106" s="2"/>
-      <c r="R106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL106" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AM106" t="s" s="2">
-        <v>599</v>
-      </c>
-      <c r="AN106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO106" t="s" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E107" s="2"/>
-      <c r="F107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>603</v>
-      </c>
-      <c r="O107" s="2"/>
-      <c r="P107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q107" s="2"/>
-      <c r="R107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>601</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>604</v>
-      </c>
-      <c r="AL107" t="s" s="2">
-        <v>598</v>
-      </c>
-      <c r="AM107" t="s" s="2">
-        <v>605</v>
-      </c>
-      <c r="AN107" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO107" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="E108" s="2"/>
-      <c r="F108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>608</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>609</v>
-      </c>
-      <c r="O108" s="2"/>
-      <c r="P108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q108" s="2"/>
-      <c r="R108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM108" t="s" s="2">
-        <v>610</v>
-      </c>
-      <c r="AN108" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO108" t="s" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E109" s="2"/>
-      <c r="F109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>612</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="N109" t="s" s="2">
-        <v>613</v>
-      </c>
-      <c r="O109" s="2"/>
-      <c r="P109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q109" s="2"/>
-      <c r="R109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="AL109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM109" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="AN109" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AO109" t="s" s="2">
         <v>82</v>
       </c>
     </row>
